--- a/biology/Zoologie/Jardin_zoologique_de_Kinshasa/Jardin_zoologique_de_Kinshasa.xlsx
+++ b/biology/Zoologie/Jardin_zoologique_de_Kinshasa/Jardin_zoologique_de_Kinshasa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Jardin zoologique de Kinshasa ou encore zoo de Kinshasa  est un parc animalier situé dans la commune de la Gombe, à côté du marché central  et l'hôpital général de Kinshasa en République démocratique du Congo[1].
+Jardin zoologique de Kinshasa ou encore zoo de Kinshasa  est un parc animalier situé dans la commune de la Gombe, à côté du marché central  et l'hôpital général de Kinshasa en République démocratique du Congo.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est créé vers l’époque coloniale dans les années 1938, confié depuis sa création sous la responsabilité de l'Institut congolais pour la conservation de la nature ( ICCN ), le jardin zoologique de Kinshasa abrite plus de 500 espèces, composées des mammifères, des reptiles, des oiseaux et des poissons, etc. qui représentaient jusqu'alors plus de 5000 animaux[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est créé vers l’époque coloniale dans les années 1938, confié depuis sa création sous la responsabilité de l'Institut congolais pour la conservation de la nature ( ICCN ), le jardin zoologique de Kinshasa abrite plus de 500 espèces, composées des mammifères, des reptiles, des oiseaux et des poissons, etc. qui représentaient jusqu'alors plus de 5000 animaux,.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Dégradation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’image et la valeur attractives du zoo de Kinshasa se dégradent des années après notamment à cause de la mauvaise mentalité de certains individus, la diminution de l’espace des animaux provoquée par la spoliation de l’environnement, ainsi que le manque des traitements appropriés accordés aux animaux.
-Jusqu'en 2020 il comprend en son sein que plus de 129 animaux dont une trentaine d'espèces selon le docteur Kazadi Fernand de l'ICCN[4], et face à cette situation le conservateur de la nature fait réagir le gouvernement.
+Jusqu'en 2020 il comprend en son sein que plus de 129 animaux dont une trentaine d'espèces selon le docteur Kazadi Fernand de l'ICCN, et face à cette situation le conservateur de la nature fait réagir le gouvernement.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Travaux de réhabilitation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le jeudi 29 juillet 2021, le ministre national du tourisme, Modero Nsimba lance  les travaux de réhabilitation du jardin zoologique de Kinshasa[5],[6]. Cette réhabilitation permet de renouer à nouveau avec la fréquentation des visiteurs.
-Dans une ville d'environ douze millions d'habitants la fréquence de visites est estimée à environ 500 visiteurs par semaine selon le directeur du jardin : Dinganga tra Ndeto[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le jeudi 29 juillet 2021, le ministre national du tourisme, Modero Nsimba lance  les travaux de réhabilitation du jardin zoologique de Kinshasa,. Cette réhabilitation permet de renouer à nouveau avec la fréquentation des visiteurs.
+Dans une ville d'environ douze millions d'habitants la fréquence de visites est estimée à environ 500 visiteurs par semaine selon le directeur du jardin : Dinganga tra Ndeto.
 </t>
         </is>
       </c>
